--- a/利润表/300613.xlsx
+++ b/利润表/300613.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-06-30 00:00:00</t>
+          <t>2016-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>37010822.51</v>
+        <v>111840683.52</v>
       </c>
       <c r="P2" t="n">
-        <v>219008665.71</v>
+        <v>321696017.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>245926099.33</v>
+        <v>207073625.98</v>
       </c>
       <c r="R2" t="n">
-        <v>43.1433113152</v>
+        <v>47.089378303</v>
       </c>
       <c r="S2" t="n">
-        <v>140752580.2</v>
+        <v>138461253.84</v>
       </c>
       <c r="T2" t="n">
-        <v>140752580.2</v>
+        <v>138461253.84</v>
       </c>
       <c r="U2" t="n">
-        <v>19.355832879</v>
+        <v>73.11819913239999</v>
       </c>
       <c r="V2" t="n">
-        <v>5441298.84</v>
+        <v>5905328.89</v>
       </c>
       <c r="W2" t="n">
-        <v>19797844.92</v>
+        <v>71367306.84</v>
       </c>
       <c r="X2" t="n">
-        <v>-1026294.74</v>
+        <v>-9650310.23</v>
       </c>
       <c r="Y2" t="n">
-        <v>23348955.09</v>
+        <v>114519865.99</v>
       </c>
       <c r="Z2" t="n">
-        <v>31759411</v>
+        <v>119186483.99</v>
       </c>
       <c r="AA2" t="n">
-        <v>134820.89</v>
+        <v>9326816.699999999</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>1134467.11</v>
+        <v>796668.5699999999</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>7.1330376438</v>
+        <v>77.1372174645</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-34.496540233801</v>
+        <v>180.747612404895</v>
       </c>
       <c r="AR2" t="n">
-        <v>-3.761679532836</v>
+        <v>199.366937072001</v>
       </c>
       <c r="AS2" t="n">
-        <v>4929372</v>
+        <v>107733000.01</v>
       </c>
       <c r="AT2" t="n">
-        <v>-84.764802896471</v>
+        <v>167.854217661954</v>
       </c>
     </row>
   </sheetData>
